--- a/eth_journal/teacher1_Hours_Plan.xlsx
+++ b/eth_journal/teacher1_Hours_Plan.xlsx
@@ -394,7 +394,7 @@
         <v>100</v>
       </c>
       <c r="D2">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
